--- a/Database_development/DatabaseAccessTests/SessionExamMarks.xlsx
+++ b/Database_development/DatabaseAccessTests/SessionExamMarks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ExamName</t>
   </si>
@@ -29,10 +29,16 @@
     <t>MaxMark</t>
   </si>
   <si>
-    <t>CompScience</t>
+    <t>Math</t>
   </si>
   <si>
-    <t>IP-11</t>
+    <t>FE-31</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>KS-11</t>
   </si>
   <si>
     <t>OAIP</t>
@@ -84,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -115,13 +121,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -132,13 +138,30 @@
         <v>8</v>
       </c>
       <c r="C3" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
